--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data 2.0\Documents\GitHub\Top-Music-Analysis-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58650D5-2B85-44DF-8718-2837FEAEB96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70F397E-4DF3-4291-839B-F46E3B3F68F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E7BA016E-6FC9-410A-9341-D7B2DA2569BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E7BA016E-6FC9-410A-9341-D7B2DA2569BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,6 +130,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 100 Songs Danceability, Energy, and Valence Over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1276,7 +1336,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1</c15:sqref>
@@ -1305,7 +1365,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2:$E$63</c15:sqref>
@@ -1505,7 +1565,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-9D5C-42A2-8557-FBF5653C4E2D}"/>
                   </c:ext>
@@ -1720,6 +1780,94 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Top 100 Songs Speechiness and Instrumentalness Over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2789,6 +2937,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Top 100 Songs Tempo Over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3266,6 +3439,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3314,6 +3542,7 @@
         <c:axId val="832533016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="110"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3331,6 +3560,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Song Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3433,6 +3717,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Top 100 Songs Duration(ms)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3910,6 +4224,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3958,6 +4327,7 @@
         <c:axId val="911008936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="140000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3975,6 +4345,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Duration (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6363,13 +6788,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
+      <xdr:colOff>166687</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -6404,8 +6829,8 @@
       <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -6734,8 +7159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1447EC95-FEBF-4BF3-B75E-6250AE5EE93C}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC46" sqref="AC46"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
